--- a/webscparing/data_to_screenfull_text_04022023.xlsx
+++ b/webscparing/data_to_screenfull_text_04022023.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R85"/>
+  <dimension ref="A1:R80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,23 +522,23 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B2" t="n">
-        <v>640</v>
+        <v>618</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>to regulate or not to regulate: unravelling government institutional work towards ai regulation</t>
+          <t>reconceptualizing synergy to explain the value of business analytics systems</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>O Kokshagina, PC Reinecke</t>
+          <t>I Someh, G Shanks, M Davern</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -547,17 +547,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://journals.sagepub.com/doi/pdf/10.1177/02683962221114408</t>
+          <t>https://journals.sagepub.com/doi/pdf/10.1177/0268396218816210</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>O Kokshagina, PC Reinecke Journal of Information, 2022  journals.sagepub.com</t>
+          <t>I Someh, G Shanks, M Davern of Information Technology, 2019  journals.sagepub.com</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://scholar.google.co.za/scholar?start=200&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Information+Technology%22&amp;hl=en&amp;as_sdt=0,5&amp;as_vis=1</t>
+          <t>https://scholar.google.co.za/scholar?start=110&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Information+Technology%22&amp;hl=en&amp;as_sdt=0,5&amp;as_vis=1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="b">
         <v>0</v>
@@ -592,23 +592,23 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B3" t="n">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>reconceptualizing synergy to explain the value of business analytics systems</t>
+          <t>data science in organizations: conceptualizing its breakthroughs and blind spots</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>I Someh, G Shanks, M Davern</t>
+          <t>JL Cybulski, R Scheepers</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -617,17 +617,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://journals.sagepub.com/doi/pdf/10.1177/0268396218816210</t>
+          <t>https://journals.sagepub.com/doi/pdf/10.1177/0268396220988539</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>I Someh, G Shanks, M Davern of Information Technology, 2019  journals.sagepub.com</t>
+          <t>JL Cybulski, R Scheepers of Information Technology, 2021  journals.sagepub.com</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://scholar.google.co.za/scholar?start=110&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Information+Technology%22&amp;hl=en&amp;as_sdt=0,5&amp;as_vis=1</t>
+          <t>https://scholar.google.co.za/scholar?start=20&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Information+Technology%22&amp;hl=en&amp;as_sdt=0,5&amp;as_vis=1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -648,10 +648,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="b">
         <v>0</v>
@@ -662,23 +662,23 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B4" t="n">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>data analytics dilemma at alpen hotel</t>
+          <t>influencing information systems practice: the action principles approach applied to robotic process and cognitive automation</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>T Wee, A Perdana, D Remy</t>
+          <t>M Lacity, L Willcocks</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -687,17 +687,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://journals.sagepub.com/doi/pdf/10.1177/2043886919870543</t>
+          <t>https://journals.sagepub.com/doi/pdf/10.1177/0268396221990778</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>T Wee, A Perdana, D Remy of information technology, 2019  journals.sagepub.com</t>
+          <t>M Lacity, L Willcocks of Information Technology, 2021  journals.sagepub.com</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://scholar.google.co.za/scholar?start=90&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Information+Technology%22&amp;hl=en&amp;as_sdt=0,5&amp;as_vis=1</t>
+          <t>https://scholar.google.co.za/scholar?start=10&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Information+Technology%22&amp;hl=en&amp;as_sdt=0,5&amp;as_vis=1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -718,37 +718,37 @@
         <v>0</v>
       </c>
       <c r="O4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="b">
         <v>0</v>
       </c>
       <c r="R4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" t="n">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>data science in organizations: conceptualizing its breakthroughs and blind spots</t>
+          <t>artificial intelligence and the conduct of literature reviews</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>JL Cybulski, R Scheepers</t>
+          <t>G Wagner, R Lukyanenko</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -757,17 +757,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://journals.sagepub.com/doi/pdf/10.1177/0268396220988539</t>
+          <t>https://journals.sagepub.com/doi/pdf/10.1177/02683962211048201</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>JL Cybulski, R Scheepers of Information Technology, 2021  journals.sagepub.com</t>
+          <t>G Wagner, R Lukyanenko of Information Technology, 2022  journals.sagepub.com</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://scholar.google.co.za/scholar?start=20&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Information+Technology%22&amp;hl=en&amp;as_sdt=0,5&amp;as_vis=1</t>
+          <t>https://scholar.google.co.za/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Information+Technology%22&amp;hl=en&amp;as_sdt=0,5&amp;as_vis=1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="K5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -802,19 +802,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B6" t="n">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>influencing information systems practice: the action principles approach applied to robotic process and cognitive automation</t>
+          <t>algorithmic pollution: making the invisible visible</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>M Lacity, L Willcocks</t>
+          <t>O Marjanovic, D Cecez</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -827,17 +827,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://journals.sagepub.com/doi/pdf/10.1177/0268396221990778</t>
+          <t>https://journals.sagepub.com/doi/pdf/10.1177/02683962211010356</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>M Lacity, L Willcocks of Information Technology, 2021  journals.sagepub.com</t>
+          <t>O Marjanovic, D CecezKecmanovic Journal of Information, 2021  journals.sagepub.com</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://scholar.google.co.za/scholar?start=10&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Information+Technology%22&amp;hl=en&amp;as_sdt=0,5&amp;as_vis=1</t>
+          <t>https://scholar.google.co.za/scholar?start=70&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Information+Technology%22&amp;hl=en&amp;as_sdt=0,5&amp;as_vis=1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -864,55 +864,55 @@
         <v>0</v>
       </c>
       <c r="Q6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B7" t="n">
-        <v>639</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>regulation of data-driven market power in the digital economy: business value creation and competitive advantages from big data</t>
+          <t>conceptual data modelling in theory and practice</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>V Fast, D Schnurr, M Wohlfarth</t>
+          <t>D Batra, GM Marakas</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2021</v>
+        <v>1995</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Journal of Information Technology </t>
+          <t xml:space="preserve"> European Journal of Information Systems</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://journals.sagepub.com/doi/pdf/10.1177/02683962221114394</t>
+          <t>https://www.tandfonline.com/doi/abs/10.1057/ejis.1995.21</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>V Fast, D Schnurr, M Wohlfarth of Information Technology, 2021  journals.sagepub.com</t>
+          <t>D Batra, GM Marakas European Journal of Information Systems, 1995  Taylor  Francis</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://scholar.google.co.za/scholar?start=150&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Information+Technology%22&amp;hl=en&amp;as_sdt=0,5&amp;as_vis=1</t>
+          <t>https://scholar.google.com/scholar?start=30&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Journal of Information Technology </t>
+          <t>European Journal of Information Systems</t>
         </is>
       </c>
       <c r="K7" t="b">
@@ -942,51 +942,51 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="B8" t="n">
-        <v>651</v>
+        <v>34</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>rho ai–leveraging artificial intelligence to address climate change: financing, implementation and ethics</t>
+          <t>transforming decision-making processes: a research agenda for understanding the impact of business analytics on organisations</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>I Fischer, C Beswick, S Newell</t>
+          <t>R Sharma, S Mithas, A Kankanhalli</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Journal of Information Technology </t>
+          <t xml:space="preserve"> European Journal of Information Systems</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://journals.sagepub.com/doi/pdf/10.1177/2043886920961782</t>
+          <t>https://www.tandfonline.com/doi/abs/10.1057/ejis.2014.17</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>I Fischer, C Beswick, S Newell of Information Technology, 2021  journals.sagepub.com</t>
+          <t>R Sharma, S Mithas, A Kankanhalli of Information Systems, 2014  Taylor  Francis</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://scholar.google.co.za/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Information+Technology%22&amp;hl=en&amp;as_sdt=0,5&amp;as_vis=1</t>
+          <t>https://scholar.google.com/scholar?start=10&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Journal of Information Technology </t>
+          <t>European Journal of Information Systems</t>
         </is>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
@@ -1012,51 +1012,51 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B9" t="n">
-        <v>633</v>
+        <v>35</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>artificial intelligence and the conduct of literature reviews</t>
+          <t>utilizing big data analytics for information systems research: challenges, promises and guidelines</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>G Wagner, R Lukyanenko</t>
+          <t>O Mller, I Junglas, J Brocke</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Journal of Information Technology </t>
+          <t xml:space="preserve"> European Journal of Information Systems</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://journals.sagepub.com/doi/pdf/10.1177/02683962211048201</t>
+          <t>https://www.tandfonline.com/doi/abs/10.1057/ejis.2016.2</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>G Wagner, R Lukyanenko of Information Technology, 2022  journals.sagepub.com</t>
+          <t>O Mller, I Junglas, J Brocke of Information Systems, 2016  Taylor  Francis</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://scholar.google.co.za/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Information+Technology%22&amp;hl=en&amp;as_sdt=0,5&amp;as_vis=1</t>
+          <t>https://scholar.google.com/scholar?start=30&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Journal of Information Technology </t>
+          <t>European Journal of Information Systems</t>
         </is>
       </c>
       <c r="K9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="b">
         <v>0</v>
@@ -1082,47 +1082,47 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="B10" t="n">
-        <v>637</v>
+        <v>44</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>it-based regulation of personal health: nudging, mobile health apps and personal health data</t>
+          <t>determinants and heterogeneity of switching costs in it outsourcing: estimates from firm-level data</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>E Davidson, J Winter</t>
+          <t>C Peukert</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Journal of Information Technology </t>
+          <t xml:space="preserve"> European Journal of Information Systems</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://journals.sagepub.com/doi/pdf/10.1177/02683962221112678</t>
+          <t>https://www.tandfonline.com/doi/abs/10.1080/0960085X.2018.1529374</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>E Davidson, J Winter of Information Technology, 2022  journals.sagepub.com</t>
+          <t>C Peukert European Journal of Information Systems, 2019  Taylor  Francis</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://scholar.google.co.za/scholar?start=310&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Information+Technology%22&amp;hl=en&amp;as_sdt=0,5&amp;as_vis=1</t>
+          <t>https://scholar.google.com/scholar?start=70&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Journal of Information Technology </t>
+          <t>European Journal of Information Systems</t>
         </is>
       </c>
       <c r="K10" t="b">
@@ -1152,47 +1152,47 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B11" t="n">
-        <v>630</v>
+        <v>45</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>algorithmic pollution: making the invisible visible</t>
+          <t>how long can this party last? what the rise and fall of or/ms can teach us about the future of business analytics</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>O Marjanovic, D Cecez</t>
+          <t>RF Otondo</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Journal of Information Technology </t>
+          <t xml:space="preserve"> European Journal of Information Systems</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://journals.sagepub.com/doi/pdf/10.1177/02683962211010356</t>
+          <t>https://www.tandfonline.com/doi/abs/10.1080/0960085X.2019.1598609</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>O Marjanovic, D CecezKecmanovic Journal of Information, 2021  journals.sagepub.com</t>
+          <t>RF Otondo European Journal of Information Systems, 2019  Taylor  Francis</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://scholar.google.co.za/scholar?start=70&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Information+Technology%22&amp;hl=en&amp;as_sdt=0,5&amp;as_vis=1</t>
+          <t>https://scholar.google.com/scholar?start=70&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Journal of Information Technology </t>
+          <t>European Journal of Information Systems</t>
         </is>
       </c>
       <c r="K11" t="b">
@@ -1211,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="b">
         <v>0</v>
@@ -1222,23 +1222,23 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>conceptual data modelling in theory and practice</t>
+          <t>algorithmic control and gig workers: a legitimacy perspective of uber drivers</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>D Batra, GM Marakas</t>
+          <t>M Wiener, W Cram, A Benlian</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1995</v>
+        <v>2021</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1247,17 +1247,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.tandfonline.com/doi/abs/10.1057/ejis.1995.21</t>
+          <t>https://www.tandfonline.com/doi/abs/10.1080/0960085X.2021.1977729</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>D Batra, GM Marakas European Journal of Information Systems, 1995  Taylor  Francis</t>
+          <t>M Wiener, W Cram, A Benlian European Journal of Information, 2021  Taylor  Francis</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=30&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=20&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1278,13 +1278,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
       </c>
       <c r="Q12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="b">
         <v>0</v>
@@ -1292,23 +1292,23 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B13" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>transforming decision-making processes: a research agenda for understanding the impact of business analytics on organisations</t>
+          <t>when your data has covid-19: how the changing context disrupts data collection and what to do about it</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R Sharma, S Mithas, A Kankanhalli</t>
+          <t>B Prommegger, J Bennett Thatcher</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1317,17 +1317,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.tandfonline.com/doi/abs/10.1057/ejis.2014.17</t>
+          <t>https://www.tandfonline.com/doi/abs/10.1080/0960085X.2020.1841573</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>R Sharma, S Mithas, A Kankanhalli of Information Systems, 2014  Taylor  Francis</t>
+          <t>B Prommegger, J Bennett Thatcher Journal of Information, 2021  Taylor  Francis</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=10&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=50&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="O13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="b">
         <v>0</v>
@@ -1362,23 +1362,23 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B14" t="n">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>utilizing big data analytics for information systems research: challenges, promises and guidelines</t>
+          <t>algorithmic bias: review, synthesis, and future research directions</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>O Mller, I Junglas, J Brocke</t>
+          <t>N Kordzadeh, M Ghasemaghaei</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1387,17 +1387,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.tandfonline.com/doi/abs/10.1057/ejis.2016.2</t>
+          <t>https://www.tandfonline.com/doi/abs/10.1080/0960085X.2021.1927212</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>O Mller, I Junglas, J Brocke of Information Systems, 2016  Taylor  Francis</t>
+          <t>N Kordzadeh, M Ghasemaghaei European Journal of Information, 2022  Taylor  Francis</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=30&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
@@ -1432,23 +1432,23 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B15" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>determinants and heterogeneity of switching costs in it outsourcing: estimates from firm-level data</t>
+          <t>antecedents and performance outcomes of employees' data analytics skills: an adaptation structuration theory-based empirical investigation</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>C Peukert</t>
+          <t>Z Shao, J Benitez, J Zhang, H Zheng</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1457,17 +1457,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.tandfonline.com/doi/abs/10.1080/0960085X.2018.1529374</t>
+          <t>https://www.tandfonline.com/doi/abs/10.1080/0960085X.2022.2078235</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>C Peukert European Journal of Information Systems, 2019  Taylor  Francis</t>
+          <t>Z Shao, J Benitez, J Zhang, H Zheng of Information Systems, 2022  Taylor  Francis</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=70&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=40&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1491,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="b">
         <v>0</v>
@@ -1502,23 +1502,23 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="B16" t="n">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>how long can this party last? what the rise and fall of or/ms can teach us about the future of business analytics</t>
+          <t>the dark side of data ecosystems: a longitudinal study of the damd project</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>RF Otondo</t>
+          <t>J Aaen, JA Nielsen, A Carugati</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1527,17 +1527,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.tandfonline.com/doi/abs/10.1080/0960085X.2019.1598609</t>
+          <t>https://www.tandfonline.com/doi/abs/10.1080/0960085X.2021.1947753</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>RF Otondo European Journal of Information Systems, 2019  Taylor  Francis</t>
+          <t>J Aaen, JA Nielsen, A Carugati European Journal of Information, 2022  Taylor  Francis</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=70&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=60&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1558,10 +1558,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="b">
         <v>0</v>
@@ -1572,23 +1572,23 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B17" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>algorithmic control and gig workers: a legitimacy perspective of uber drivers</t>
+          <t>the dark sides of people analytics: reviewing the perils for organisations and employees</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>M Wiener, W Cram, A Benlian</t>
+          <t>LM Giermindl, F Strich, O Christ</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1597,17 +1597,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.tandfonline.com/doi/abs/10.1080/0960085X.2021.1977729</t>
+          <t>https://www.tandfonline.com/doi/abs/10.1080/0960085X.2021.1927213</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>M Wiener, W Cram, A Benlian European Journal of Information, 2021  Taylor  Francis</t>
+          <t>LM Giermindl, F Strich, O Christ Journal of Information, 2022  Taylor  Francis</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=20&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1631,10 +1631,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="b">
         <v>0</v>
@@ -1642,23 +1642,23 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B18" t="n">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>when your data has covid-19: how the changing context disrupts data collection and what to do about it</t>
+          <t>theorising algorithmic justice</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>B Prommegger, J Bennett Thatcher</t>
+          <t>O Marjanovic, D Cecez</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1667,17 +1667,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.tandfonline.com/doi/abs/10.1080/0960085X.2020.1841573</t>
+          <t>https://www.tandfonline.com/doi/abs/10.1080/0960085X.2021.1934130</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>B Prommegger, J Bennett Thatcher Journal of Information, 2021  Taylor  Francis</t>
+          <t>O Marjanovic, D CecezKecmanovic of Information Systems, 2022  Taylor  Francis</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=50&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=40&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1698,13 +1698,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
       </c>
       <c r="Q18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B19" t="n">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>algorithmic bias: review, synthesis, and future research directions</t>
+          <t>thinking responsibly about responsible ai and 'the dark side'of ai</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>N Kordzadeh, M Ghasemaghaei</t>
+          <t>P Mikalef, K Conboy, JE Lundstrm</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1737,12 +1737,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.tandfonline.com/doi/abs/10.1080/0960085X.2021.1927212</t>
+          <t>https://www.tandfonline.com/doi/abs/10.1080/0960085X.2022.2026621</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>N Kordzadeh, M Ghasemaghaei European Journal of Information, 2022  Taylor  Francis</t>
+          <t>P Mikalef, K Conboy, JE Lundstrm of Information Systems, 2022  Taylor  Francis</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="b">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="b">
         <v>0</v>
@@ -1782,19 +1782,19 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B20" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>antecedents and performance outcomes of employees' data analytics skills: an adaptation structuration theory-based empirical investigation</t>
+          <t>understanding dark side of artificial intelligence (ai) integrated business analytics: assessing firm's operational inefficiency and competitiveness</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Z Shao, J Benitez, J Zhang, H Zheng</t>
+          <t>NP Rana, S Chatterjee, YK Dwivedi</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1807,17 +1807,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.tandfonline.com/doi/abs/10.1080/0960085X.2022.2078235</t>
+          <t>https://www.tandfonline.com/doi/abs/10.1080/0960085X.2021.1955628</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Z Shao, J Benitez, J Zhang, H Zheng of Information Systems, 2022  Taylor  Francis</t>
+          <t>NP Rana, S Chatterjee, YK Dwivedi of Information Systems, 2022  Taylor  Francis</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=40&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="K20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
@@ -1852,47 +1852,47 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B21" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>the dark side of data ecosystems: a longitudinal study of the damd project</t>
+          <t>towards a cognitive foundation for knowledge representation</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>J Aaen, JA Nielsen, A Carugati</t>
+          <t>J Evermann</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2022</v>
+        <v>2005</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European Journal of Information Systems</t>
+          <t>Information Systems Journal</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.tandfonline.com/doi/abs/10.1080/0960085X.2021.1947753</t>
+          <t>https://onlinelibrary.wiley.com/doi/abs/10.1111/j.1365-2575.2005.00193.x</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>J Aaen, JA Nielsen, A Carugati European Journal of Information, 2022  Taylor  Francis</t>
+          <t>J Evermann Information Systems Journal, 2005  Wiley Online Library</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=60&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=10&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Journal%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>European Journal of Information Systems</t>
+          <t>Information Systems Journal</t>
         </is>
       </c>
       <c r="K21" t="b">
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
         <v>0</v>
@@ -1917,24 +1917,24 @@
         <v>0</v>
       </c>
       <c r="R21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="B22" t="n">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>the dark sides of people analytics: reviewing the perils for organisations and employees</t>
+          <t>creative analytics: towards data‐inspired creative decisions</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LM Giermindl, F Strich, O Christ</t>
+          <t>T Tamm, P Hallikainen, Y Tim</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1942,27 +1942,27 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European Journal of Information Systems</t>
+          <t>Information Systems Journal</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://www.tandfonline.com/doi/abs/10.1080/0960085X.2021.1927213</t>
+          <t>https://onlinelibrary.wiley.com/doi/abs/10.1111/isj.12369</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>LM Giermindl, F Strich, O Christ Journal of Information, 2022  Taylor  Francis</t>
+          <t>T Tamm, P Hallikainen, Y Tim Information Systems Journal, 2022  Wiley Online Library</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Journal%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>European Journal of Information Systems</t>
+          <t>Information Systems Journal</t>
         </is>
       </c>
       <c r="K22" t="b">
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="B23" t="n">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>theorising algorithmic justice</t>
+          <t>a sociotechnical view of algorithmic fairness</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>O Marjanovic, D Cecez</t>
+          <t>M Dolata, S Feuerriegel</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -2012,27 +2012,27 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European Journal of Information Systems</t>
+          <t>Information Systems Journal</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://www.tandfonline.com/doi/abs/10.1080/0960085X.2021.1934130</t>
+          <t>https://onlinelibrary.wiley.com/doi/abs/10.1111/isj.12370</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>O Marjanovic, D CecezKecmanovic of Information Systems, 2022  Taylor  Francis</t>
+          <t>M Dolata, S Feuerriegel Information Systems, 2022  Wiley Online Library</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=40&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=10&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Journal%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>European Journal of Information Systems</t>
+          <t>Information Systems Journal</t>
         </is>
       </c>
       <c r="K23" t="b">
@@ -2062,54 +2062,54 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="B24" t="n">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>thinking responsibly about responsible ai and 'the dark side'of ai</t>
+          <t>cognitive fit: an empirical study of information acquisition</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>P Mikalef, K Conboy, JE Lundstrm</t>
+          <t>I Vessey, D Galletta</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2022</v>
+        <v>1991</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European Journal of Information Systems</t>
+          <t>Information Systems Research</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://www.tandfonline.com/doi/abs/10.1080/0960085X.2022.2026621</t>
+          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.2.1.63</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>P Mikalef, K Conboy, JE Lundstrm of Information Systems, 2022  Taylor  Francis</t>
+          <t>I Vessey, D Galletta Information systems research, 1991  pubsonline.informs.org</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=100&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>European Journal of Information Systems</t>
+          <t>Information Systems Research</t>
         </is>
       </c>
       <c r="K24" t="b">
         <v>0</v>
       </c>
       <c r="L24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="b">
         <v>0</v>
@@ -2127,56 +2127,56 @@
         <v>0</v>
       </c>
       <c r="R24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="B25" t="n">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>understanding dark side of artificial intelligence (ai) integrated business analytics: assessing firm's operational inefficiency and competitiveness</t>
+          <t>application of social cognitive theory to training for computer skills</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NP Rana, S Chatterjee, YK Dwivedi</t>
+          <t>DR Compeau, CA Higgins</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2022</v>
+        <v>1995</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European Journal of Information Systems</t>
+          <t>Information Systems Research</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://www.tandfonline.com/doi/abs/10.1080/0960085X.2021.1955628</t>
+          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.6.2.118</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>NP Rana, S Chatterjee, YK Dwivedi of Information Systems, 2022  Taylor  Francis</t>
+          <t>DR Compeau, CA Higgins Information systems research, 1995  pubsonline.informs.org</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22European+Journal+of+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=70&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>European Journal of Information Systems</t>
+          <t>Information Systems Research</t>
         </is>
       </c>
       <c r="K25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -2191,58 +2191,58 @@
         <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="b">
         <v>0</v>
       </c>
       <c r="R25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>141</v>
+        <v>213</v>
       </c>
       <c r="B26" t="n">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>towards a cognitive foundation for knowledge representation</t>
+          <t>perceived information quality in data exchanges: effects on risk, trust, and intention to use</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>J Evermann</t>
+          <t>AI Nicolaou, DH McKnight</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Information Systems Journal</t>
+          <t>Information Systems Research</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://onlinelibrary.wiley.com/doi/abs/10.1111/j.1365-2575.2005.00193.x</t>
+          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.1060.0103</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>J Evermann Information Systems Journal, 2005  Wiley Online Library</t>
+          <t>AI Nicolaou, DH McKnight Information systems research, 2006  pubsonline.informs.org</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=10&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Journal%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Information Systems Journal</t>
+          <t>Information Systems Research</t>
         </is>
       </c>
       <c r="K26" t="b">
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="b">
         <v>0</v>
@@ -2267,52 +2267,52 @@
         <v>0</v>
       </c>
       <c r="R26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="B27" t="n">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>creative analytics: towards data‐inspired creative decisions</t>
+          <t>conceptualizing and testing a social cognitive model of the digital divide</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>T Tamm, P Hallikainen, Y Tim</t>
+          <t>KK Wei, HH Teo, HC Chan</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Information Systems Journal</t>
+          <t>Information Systems Research</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://onlinelibrary.wiley.com/doi/abs/10.1111/isj.12369</t>
+          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.1090.0273</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>T Tamm, P Hallikainen, Y Tim Information Systems Journal, 2022  Wiley Online Library</t>
+          <t>KK Wei, HH Teo, HC Chan Information Systems, 2011  pubsonline.informs.org</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Journal%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=70&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Information Systems Journal</t>
+          <t>Information Systems Research</t>
         </is>
       </c>
       <c r="K27" t="b">
@@ -2328,61 +2328,61 @@
         <v>0</v>
       </c>
       <c r="O27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="b">
         <v>0</v>
       </c>
       <c r="R27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="B28" t="n">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>a sociotechnical view of algorithmic fairness</t>
+          <t>big data, data science, and analytics: the opportunity and challenge for is research</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>M Dolata, S Feuerriegel</t>
+          <t>R Agarwal, V Dhar</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Information Systems Journal</t>
+          <t>Information Systems Research</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://onlinelibrary.wiley.com/doi/abs/10.1111/isj.12370</t>
+          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.2014.0546</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>M Dolata, S Feuerriegel Information Systems, 2022  Wiley Online Library</t>
+          <t>R Agarwal, V Dhar Information systems research, 2014  pubsonline.informs.org</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=10&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Journal%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=20&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Information Systems Journal</t>
+          <t>Information Systems Research</t>
         </is>
       </c>
       <c r="K28" t="b">
@@ -2398,13 +2398,13 @@
         <v>0</v>
       </c>
       <c r="O28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" t="b">
         <v>0</v>
@@ -2412,23 +2412,23 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>172</v>
+        <v>261</v>
       </c>
       <c r="B29" t="n">
-        <v>113</v>
+        <v>207</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>cognitive fit: an empirical study of information acquisition</t>
+          <t>research commentary—data-driven computationally intensive theory development</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>I Vessey, D Galletta</t>
+          <t>N Berente, S Seidel, H Safadi</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2437,17 +2437,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.2.1.63</t>
+          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.2018.0774</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>I Vessey, D Galletta Information systems research, 1991  pubsonline.informs.org</t>
+          <t>N Berente, S Seidel, H Safadi Information Systems, 2019  pubsonline.informs.org</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=100&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=40&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="b">
         <v>0</v>
@@ -2477,28 +2477,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="B30" t="n">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>application of social cognitive theory to training for computer skills</t>
+          <t>eye-tracking-based classification of information search behavior using machine learning: evidence from experiments in physical shops and virtual reality shopping …</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>DR Compeau, CA Higgins</t>
+          <t>J Pfeiffer, T Pfeiffer, M Meiner</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1995</v>
+        <v>2020</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2507,17 +2507,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.6.2.118</t>
+          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.2019.0907</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>DR Compeau, CA Higgins Information systems research, 1995  pubsonline.informs.org</t>
+          <t>J Pfeiffer, T Pfeiffer, M Meiner Information Systems, 2020  pubsonline.informs.org</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=70&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=120&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="b">
         <v>0</v>
@@ -2547,28 +2547,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c r="B31" t="n">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>perceived information quality in data exchanges: effects on risk, trust, and intention to use</t>
+          <t>editorial for the special section on humans, algorithms, and augmented intelligence: the future of work, organizations, and society</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>AI Nicolaou, DH McKnight</t>
+          <t>H Jain, B Padmanabhan, PA Pavlou</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2006</v>
+        <v>2021</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2577,12 +2577,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.1060.0103</t>
+          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.2021.1046</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>AI Nicolaou, DH McKnight Information systems research, 2006  pubsonline.informs.org</t>
+          <t>H Jain, B Padmanabhan, PA Pavlou Information Systems, 2021  pubsonline.informs.org</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="O31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
         <v>0</v>
       </c>
       <c r="Q31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="b">
         <v>0</v>
@@ -2622,23 +2622,23 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="B32" t="n">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>conceptualizing and testing a social cognitive model of the digital divide</t>
+          <t>getting personal: a deep learning artifact for text-based measurement of personality</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>KK Wei, HH Teo, HC Chan</t>
+          <t>K Yang, RYK Lau, A Abbasi</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2011</v>
+        <v>2022</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2647,17 +2647,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.1090.0273</t>
+          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.2022.1111</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>KK Wei, HH Teo, HC Chan Information Systems, 2011  pubsonline.informs.org</t>
+          <t>K Yang, RYK Lau, A Abbasi Information Systems Research, 2022  pubsonline.informs.org</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=70&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=140&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -2687,28 +2687,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="B33" t="n">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>big data, data science, and analytics: the opportunity and challenge for is research</t>
+          <t>algorithmic assortative matching on a digital social medium</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R Agarwal, V Dhar</t>
+          <t>K Lpez Vargas, J Runge</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2717,17 +2717,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.2014.0546</t>
+          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.2022.1135</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>R Agarwal, V Dhar Information systems research, 2014  pubsonline.informs.org</t>
+          <t>K Lpez Vargas, J Runge Information Systems, 2022  pubsonline.informs.org</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=20&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=40&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2748,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" t="b">
         <v>0</v>
@@ -2762,23 +2762,23 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="B34" t="n">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>research commentary—data-driven computationally intensive theory development</t>
+          <t>predicting stages in omnichannel path to purchase: a deep learning model</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>N Berente, S Seidel, H Safadi</t>
+          <t>C Sun, P Adamopoulos, A Ghose</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2787,17 +2787,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.2018.0774</t>
+          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.2021.1071</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>N Berente, S Seidel, H Safadi Information Systems, 2019  pubsonline.informs.org</t>
+          <t>C Sun, P Adamopoulos, A Ghose Information Systems, 2022  pubsonline.informs.org</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=40&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=130&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2812,13 +2812,13 @@
         <v>0</v>
       </c>
       <c r="M34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
       </c>
       <c r="O34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
         <v>0</v>
@@ -2832,23 +2832,23 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="B35" t="n">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>eye-tracking-based classification of information search behavior using machine learning: evidence from experiments in physical shops and virtual reality shopping …</t>
+          <t>threatened by ai: analyzing users' responses to the introduction of ai in a crowd-sourcing platform</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>J Pfeiffer, T Pfeiffer, M Meiner</t>
+          <t>M Lysyakov, S Viswanathan</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2857,17 +2857,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.2019.0907</t>
+          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.2022.1184</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>J Pfeiffer, T Pfeiffer, M Meiner Information Systems, 2020  pubsonline.informs.org</t>
+          <t>M Lysyakov, S Viswanathan Information Systems, 2022  pubsonline.informs.org</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=120&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=10&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2879,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="L35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" t="b">
         <v>0</v>
       </c>
       <c r="N35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="b">
         <v>0</v>
@@ -2902,23 +2902,23 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="B36" t="n">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>editorial for the special section on humans, algorithms, and augmented intelligence: the future of work, organizations, and society</t>
+          <t>fairness of ratemaking for catastrophe insurance: lessons from machine learning</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>H Jain, B Padmanabhan, PA Pavlou</t>
+          <t>N Zhang, H Xu</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2927,17 +2927,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.2021.1046</t>
+          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.2022.1195</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>H Jain, B Padmanabhan, PA Pavlou Information Systems, 2021  pubsonline.informs.org</t>
+          <t>N Zhang, H Xu Information Systems Research, 2023  pubsonline.informs.org</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=160&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="b">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" t="b">
         <v>0</v>
@@ -2972,23 +2972,23 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="B37" t="n">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>getting personal: a deep learning artifact for text-based measurement of personality</t>
+          <t>a theory-driven deep learning method for voice chat–based customer response prediction</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>K Yang, RYK Lau, A Abbasi</t>
+          <t>G Chen, S Xiao, C Zhang</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2997,17 +2997,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.2022.1111</t>
+          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.2022.1196</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>K Yang, RYK Lau, A Abbasi Information Systems Research, 2022  pubsonline.informs.org</t>
+          <t>G Chen, S Xiao, C Zhang Information Systems, 2023  pubsonline.informs.org</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=140&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=90&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3042,47 +3042,47 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="B38" t="n">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>algorithmic assortative matching on a digital social medium</t>
+          <t>regulating cryptocurrencies: a supervised machine learning approach to de-anonymizing the bitcoin blockchain</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>K Lpez Vargas, J Runge</t>
+          <t>HH Sun Yin, K Langenheldt, M Harlev</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Information Systems Research</t>
+          <t xml:space="preserve"> Information Systems, 2019 </t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.2022.1135</t>
+          <t>https://www.tandfonline.com/doi/abs/10.1080/07421222.2018.1550550</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>K Lpez Vargas, J Runge Information Systems, 2022  pubsonline.informs.org</t>
+          <t>HH Sun Yin, K Langenheldt, M Harlev Information Systems, 2019  Taylor  Francis</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=40&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=20&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Management+information+systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Information Systems Research</t>
+          <t>Journal of Management information systems</t>
         </is>
       </c>
       <c r="K38" t="b">
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="b">
         <v>0</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" t="b">
         <v>0</v>
@@ -3112,47 +3112,47 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="B39" t="n">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>predicting stages in omnichannel path to purchase: a deep learning model</t>
+          <t>enhancing predictive analytics for anti-phishing by exploiting website genre information</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>C Sun, P Adamopoulos, A Ghose</t>
+          <t>A Abbasi, FM Zahedi, D Zeng, Y Chen</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Information Systems Research</t>
+          <t>Journal of Management information systems</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.2021.1071</t>
+          <t>https://www.tandfonline.com/doi/abs/10.1080/07421222.2014.1001260</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>C Sun, P Adamopoulos, A Ghose Information Systems, 2022  pubsonline.informs.org</t>
+          <t>A Abbasi, FM Zahedi, D Zeng, Y Chen Information Systems, 2015  Taylor  Francis</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=130&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=10&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Management+information+systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Information Systems Research</t>
+          <t>Journal of Management information systems</t>
         </is>
       </c>
       <c r="K39" t="b">
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="b">
         <v>0</v>
@@ -3182,54 +3182,54 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="B40" t="n">
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>threatened by ai: analyzing users' responses to the introduction of ai in a crowd-sourcing platform</t>
+          <t>the impact of data accuracy on system learning</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>M Lysyakov, S Viswanathan</t>
+          <t>DE OLeary</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2022</v>
+        <v>1993</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Information Systems Research</t>
+          <t>Journal of Management information systems</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.2022.1184</t>
+          <t>https://www.tandfonline.com/doi/abs/10.1080/07421222.1993.11517979</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>M Lysyakov, S Viswanathan Information Systems, 2022  pubsonline.informs.org</t>
+          <t>DE OLeary Journal of Management Information Systems, 1993  Taylor  Francis</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=10&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=70&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Management+information+systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Information Systems Research</t>
+          <t>Journal of Management information systems</t>
         </is>
       </c>
       <c r="K40" t="b">
         <v>0</v>
       </c>
       <c r="L40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="b">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="b">
         <v>0</v>
@@ -3252,51 +3252,51 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>311</v>
+        <v>361</v>
       </c>
       <c r="B41" t="n">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>fairness of ratemaking for catastrophe insurance: lessons from machine learning</t>
+          <t>harnessing artificial intelligence to improve the quality of answers in online question-answering health forums</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>N Zhang, H Xu</t>
+          <t>R Mousavi, TS Raghu, K Frey</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Information Systems Research</t>
+          <t>Journal of Management information systems</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.2022.1195</t>
+          <t>https://www.tandfonline.com/doi/abs/10.1080/07421222.2020.1831775</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>N Zhang, H Xu Information Systems Research, 2023  pubsonline.informs.org</t>
+          <t>R Mousavi, TS Raghu, K Frey Journal of Management Information, 2020  Taylor  Francis</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=160&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Management+information+systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Information Systems Research</t>
+          <t>Journal of Management information systems</t>
         </is>
       </c>
       <c r="K41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" t="b">
         <v>0</v>
@@ -3322,47 +3322,47 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="B42" t="n">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>a theory-driven deep learning method for voice chat–based customer response prediction</t>
+          <t>unveiling the hidden truth of drug addiction: a social media approach using similarity network-based deep learning</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>G Chen, S Xiao, C Zhang</t>
+          <t>J Xie, Z Zhang, X Liu, D Zeng</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Information Systems Research</t>
+          <t>Journal of Management information systems</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://pubsonline.informs.org/doi/abs/10.1287/isre.2022.1196</t>
+          <t>https://www.tandfonline.com/doi/abs/10.1080/07421222.2021.1870388</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>G Chen, S Xiao, C Zhang Information Systems, 2023  pubsonline.informs.org</t>
+          <t>J Xie, Z Zhang, X Liu, D Zeng Journal of Management Information, 2021  Taylor  Francis</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=90&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Information+Systems+Research%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=50&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Management+information+systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Information Systems Research</t>
+          <t>Journal of Management information systems</t>
         </is>
       </c>
       <c r="K42" t="b">
@@ -3392,42 +3392,42 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="B43" t="n">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>regulating cryptocurrencies: a supervised machine learning approach to de-anonymizing the bitcoin blockchain</t>
+          <t>understanding qualitative data: a framework of text analysis methods</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HH Sun Yin, K Langenheldt, M Harlev</t>
+          <t>MC Lacity, MA Janson</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2019</v>
+        <v>1994</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Information Systems, 2019 </t>
+          <t>Journal of Management information systems</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://www.tandfonline.com/doi/abs/10.1080/07421222.2018.1550550</t>
+          <t>https://www.tandfonline.com/doi/abs/10.1080/07421222.1994.11518043</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>HH Sun Yin, K Langenheldt, M Harlev Information Systems, 2019  Taylor  Francis</t>
+          <t>MC Lacity, MA Janson of Management Information Systems, 1994  Taylor  Francis</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=20&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Management+information+systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Management+information+systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3445,10 +3445,10 @@
         <v>0</v>
       </c>
       <c r="N43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="b">
         <v>0</v>
@@ -3462,23 +3462,23 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="B44" t="n">
-        <v>286</v>
+        <v>349</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>enhancing predictive analytics for anti-phishing by exploiting website genre information</t>
+          <t>algorithmic versus human advice: does presenting prediction performance matter for algorithm appreciation?</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>A Abbasi, FM Zahedi, D Zeng, Y Chen</t>
+          <t>S You, CL Yang, X Li</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3487,17 +3487,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://www.tandfonline.com/doi/abs/10.1080/07421222.2014.1001260</t>
+          <t>https://www.tandfonline.com/doi/abs/10.1080/07421222.2022.2063553</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>A Abbasi, FM Zahedi, D Zeng, Y Chen Information Systems, 2015  Taylor  Francis</t>
+          <t>S You, CL Yang, X Li of Management Information Systems, 2022  Taylor  Francis</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=10&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Management+information+systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=40&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Management+information+systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3521,10 +3521,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" t="b">
         <v>0</v>
@@ -3532,23 +3532,23 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>351</v>
+        <v>409</v>
       </c>
       <c r="B45" t="n">
-        <v>297</v>
+        <v>360</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>the impact of data accuracy on system learning</t>
+          <t>the persuasive power of algorithmic and crowdsourced advice</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>DE OLeary</t>
+          <t>J Gunaratne, L Zalmanson, O Nov</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1993</v>
+        <v>2018</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -3557,17 +3557,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://www.tandfonline.com/doi/abs/10.1080/07421222.1993.11517979</t>
+          <t>https://www.tandfonline.com/doi/abs/10.1080/07421222.2018.1523534</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>DE OLeary Journal of Management Information Systems, 1993  Taylor  Francis</t>
+          <t>J Gunaratne, L Zalmanson, O Nov of Management Information, 2018  Taylor  Francis</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=70&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Management+information+systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=30&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Management+information+systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3588,13 +3588,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
         <v>0</v>
       </c>
       <c r="Q45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" t="b">
         <v>0</v>
@@ -3602,23 +3602,23 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="B46" t="n">
-        <v>312</v>
+        <v>365</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>harnessing artificial intelligence to improve the quality of answers in online question-answering health forums</t>
+          <t>the making of data commodities: data analytics as an embedded process</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R Mousavi, TS Raghu, K Frey</t>
+          <t>A Aaltonen, C Alaimo, J Kallinikos</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3627,17 +3627,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://www.tandfonline.com/doi/abs/10.1080/07421222.2020.1831775</t>
+          <t>https://www.tandfonline.com/doi/abs/10.1080/07421222.2021.1912928</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>R Mousavi, TS Raghu, K Frey Journal of Management Information, 2020  Taylor  Francis</t>
+          <t>A Aaltonen, C Alaimo, J Kallinikos of Management Information, 2021  Taylor  Francis</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Management+information+systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=50&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Management+information+systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="K46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
@@ -3658,10 +3658,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="b">
         <v>0</v>
@@ -3672,23 +3672,23 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>367</v>
+        <v>418</v>
       </c>
       <c r="B47" t="n">
-        <v>313</v>
+        <v>369</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>unveiling the hidden truth of drug addiction: a social media approach using similarity network-based deep learning</t>
+          <t>to be or not to be… human? theorizing the role of human-like competencies in conversational artificial intelligence agents</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>J Xie, Z Zhang, X Liu, D Zeng</t>
+          <t>S Chandra, A Shirish, SC Srivastava</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -3697,17 +3697,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://www.tandfonline.com/doi/abs/10.1080/07421222.2021.1870388</t>
+          <t>https://www.tandfonline.com/doi/abs/10.1080/07421222.2022.2127441</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>J Xie, Z Zhang, X Liu, D Zeng Journal of Management Information, 2021  Taylor  Francis</t>
+          <t>S Chandra, A Shirish, SC Srivastava of Management Information, 2022  Taylor  Francis</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=50&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Management+information+systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Management+information+systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3716,13 +3716,13 @@
         </is>
       </c>
       <c r="K47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
       </c>
       <c r="M47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -3742,23 +3742,23 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>387</v>
+        <v>420</v>
       </c>
       <c r="B48" t="n">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>understanding qualitative data: a framework of text analysis methods</t>
+          <t>why do family members reject ai in health care? competing effects of emotions</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>MC Lacity, MA Janson</t>
+          <t>EH Park, K Werder, L Cao</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1994</v>
+        <v>2022</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3767,12 +3767,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://www.tandfonline.com/doi/abs/10.1080/07421222.1994.11518043</t>
+          <t>https://www.tandfonline.com/doi/abs/10.1080/07421222.2022.2096550</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>MC Lacity, MA Janson of Management Information Systems, 1994  Taylor  Francis</t>
+          <t>EH Park, K Werder, L Cao of Management Information, 2022  Taylor  Francis</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3789,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="b">
         <v>0</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="O48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
         <v>0</v>
@@ -3812,47 +3812,47 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="B49" t="n">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>algorithmic versus human advice: does presenting prediction performance matter for algorithm appreciation?</t>
+          <t>using enterprise architecture analysis and interview data to estimate service response time</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>S You, CL Yang, X Li</t>
+          <t>P Nrman, H Holm, M Ekstedt, N Honeth</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Journal of Management information systems</t>
+          <t>Journal of Strategic Information Systems</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://www.tandfonline.com/doi/abs/10.1080/07421222.2022.2063553</t>
+          <t>https://www.sciencedirect.com/science/article/pii/S0963868712000509</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>S You, CL Yang, X Li of Management Information Systems, 2022  Taylor  Francis</t>
+          <t>P Nrman, H Holm, M Ekstedt, N Honeth of Strategic Information Systems, 2013  Elsevier</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=40&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Management+information+systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=20&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Strategic+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Journal of Management information systems</t>
+          <t>Journal of Strategic Information Systems</t>
         </is>
       </c>
       <c r="K49" t="b">
@@ -3868,13 +3868,13 @@
         <v>0</v>
       </c>
       <c r="O49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="b">
         <v>0</v>
       </c>
       <c r="Q49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" t="b">
         <v>0</v>
@@ -3882,47 +3882,47 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="B50" t="n">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>the persuasive power of algorithmic and crowdsourced advice</t>
+          <t>the lifecycle of algorithmic decision-making systems: organizational choices and ethical challenges</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>J Gunaratne, L Zalmanson, O Nov</t>
+          <t>M Marabelli, S Newell, V Handunge</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Journal of Management information systems</t>
+          <t>Journal of Strategic Information Systems</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://www.tandfonline.com/doi/abs/10.1080/07421222.2018.1523534</t>
+          <t>https://www.sciencedirect.com/science/article/pii/S0963868721000305</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>J Gunaratne, L Zalmanson, O Nov of Management Information, 2018  Taylor  Francis</t>
+          <t>M Marabelli, S Newell, V Handunge of Strategic Information Systems, 2021  Elsevier</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=30&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Management+information+systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=10&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Strategic+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Journal of Management information systems</t>
+          <t>Journal of Strategic Information Systems</t>
         </is>
       </c>
       <c r="K50" t="b">
@@ -3952,47 +3952,47 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="B51" t="n">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>the making of data commodities: data analytics as an embedded process</t>
+          <t>debating big data: a literature review on realizing value from big data</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>A Aaltonen, C Alaimo, J Kallinikos</t>
+          <t>WA Gnther, MHR Mehrizi, M Huysman</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Journal of Management information systems</t>
+          <t>Journal of Strategic Information Systems</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://www.tandfonline.com/doi/abs/10.1080/07421222.2021.1912928</t>
+          <t>https://www.sciencedirect.com/science/article/pii/S0963868717302615</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>A Aaltonen, C Alaimo, J Kallinikos of Management Information, 2021  Taylor  Francis</t>
+          <t>WA Gnther, MHR Mehrizi, M Huysman of Strategic Information, 2017  Elsevier</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=50&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Management+information+systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Strategic+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Journal of Management information systems</t>
+          <t>Journal of Strategic Information Systems</t>
         </is>
       </c>
       <c r="K51" t="b">
@@ -4011,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="b">
         <v>0</v>
@@ -4022,51 +4022,51 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="B52" t="n">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>to be or not to be… human? theorizing the role of human-like competencies in conversational artificial intelligence agents</t>
+          <t>data analytics competency for improving firm decision making performance</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>S Chandra, A Shirish, SC Srivastava</t>
+          <t>M Ghasemaghaei, S Ebrahimi, K Hassanein</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Journal of Management information systems</t>
+          <t>Journal of Strategic Information Systems</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://www.tandfonline.com/doi/abs/10.1080/07421222.2022.2127441</t>
+          <t>https://www.sciencedirect.com/science/article/pii/S0963868717300768</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>S Chandra, A Shirish, SC Srivastava of Management Information, 2022  Taylor  Francis</t>
+          <t>M Ghasemaghaei, S Ebrahimi, K Hassanein of Strategic Information, 2018  Elsevier</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Management+information+systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Strategic+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Journal of Management information systems</t>
+          <t>Journal of Strategic Information Systems</t>
         </is>
       </c>
       <c r="K52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
@@ -4078,10 +4078,10 @@
         <v>0</v>
       </c>
       <c r="O52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" t="b">
         <v>0</v>
@@ -4092,54 +4092,54 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="B53" t="n">
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>why do family members reject ai in health care? competing effects of emotions</t>
+          <t>reflections on societal and business model transformation arising from digitization and big data analytics: a research agenda</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>EH Park, K Werder, L Cao</t>
+          <t>C Loebbecke, A Picot</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Journal of Management information systems</t>
+          <t>Journal of Strategic Information Systems</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://www.tandfonline.com/doi/abs/10.1080/07421222.2022.2096550</t>
+          <t>https://www.sciencedirect.com/science/article/pii/S0963868715000372</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>EH Park, K Werder, L Cao of Management Information, 2022  Taylor  Francis</t>
+          <t>C Loebbecke, A Picot The Journal of Strategic Information Systems, 2015  Elsevier</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Management+information+systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Strategic+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Journal of Management information systems</t>
+          <t>Journal of Strategic Information Systems</t>
         </is>
       </c>
       <c r="K53" t="b">
         <v>0</v>
       </c>
       <c r="L53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="b">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="O53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" t="b">
         <v>0</v>
@@ -4162,23 +4162,23 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="B54" t="n">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>using enterprise architecture analysis and interview data to estimate service response time</t>
+          <t>augmenting the algorithm: emerging human-in-the-loop work configurations</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>P Nrman, H Holm, M Ekstedt, N Honeth</t>
+          <t>T Grnsund, M Aanestad</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -4187,17 +4187,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S0963868712000509</t>
+          <t>https://www.sciencedirect.com/science/article/pii/S0963868720300226</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>P Nrman, H Holm, M Ekstedt, N Honeth of Strategic Information Systems, 2013  Elsevier</t>
+          <t>T Grnsund, M Aanestad The Journal of Strategic Information Systems, 2020  Elsevier</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=20&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Strategic+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Strategic+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4218,13 +4218,13 @@
         <v>0</v>
       </c>
       <c r="O54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
         <v>0</v>
       </c>
       <c r="Q54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" t="b">
         <v>0</v>
@@ -4232,47 +4232,47 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="B55" t="n">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>the lifecycle of algorithmic decision-making systems: organizational choices and ethical challenges</t>
+          <t>how to build enterprise data models to achieve compliance to standards or regulatory requirements (and share data).</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>M Marabelli, S Newell, V Handunge</t>
+          <t>H Kim, MS Fox, A Sengupta</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Journal of Strategic Information Systems</t>
+          <t>Journal of the Association for Information Systems</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S0963868721000305</t>
+          <t>https://aisel.aisnet.org/jais/vol8/iss2/5/</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>M Marabelli, S Newell, V Handunge of Strategic Information Systems, 2021  Elsevier</t>
+          <t>H Kim, MS Fox, A Sengupta Association for Information Systems, 2007  aisel.aisnet.org</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=10&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Strategic+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=20&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+the+Association+for+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Journal of Strategic Information Systems</t>
+          <t>Journal of the Association for Information Systems</t>
         </is>
       </c>
       <c r="K55" t="b">
@@ -4288,13 +4288,13 @@
         <v>0</v>
       </c>
       <c r="O55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="b">
         <v>0</v>
       </c>
       <c r="Q55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" t="b">
         <v>0</v>
@@ -4302,47 +4302,47 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="B56" t="n">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>debating big data: a literature review on realizing value from big data</t>
+          <t>cognition matters: enduring questions in cognitive is research</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>WA Gnther, MHR Mehrizi, M Huysman</t>
+          <t>M Davern, T Shaft, D Teeni</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Journal of Strategic Information Systems</t>
+          <t>Journal of the Association for Information Systems</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S0963868717302615</t>
+          <t>https://aisel.aisnet.org/jais/vol13/iss4/1/</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>WA Gnther, MHR Mehrizi, M Huysman of Strategic Information, 2017  Elsevier</t>
+          <t>M Davern, T Shaft, D Teeni Association for Information Systems, 2012  aisel.aisnet.org</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Strategic+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=40&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+the+Association+for+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Journal of Strategic Information Systems</t>
+          <t>Journal of the Association for Information Systems</t>
         </is>
       </c>
       <c r="K56" t="b">
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="O56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
         <v>0</v>
@@ -4367,52 +4367,52 @@
         <v>0</v>
       </c>
       <c r="R56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="B57" t="n">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>data analytics competency for improving firm decision making performance</t>
+          <t>leveraging the wisdom of the crowd to address societal challenges: revisiting the knowledge reuse for innovation process through analytics</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>M Ghasemaghaei, S Ebrahimi, K Hassanein</t>
+          <t>Y Han, P Ozturk, JV Nickerson</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Journal of Strategic Information Systems</t>
+          <t>Journal of the Association for Information Systems</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S0963868717300768</t>
+          <t>https://aisel.aisnet.org/jais/vol21/iss5/8/</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>M Ghasemaghaei, S Ebrahimi, K Hassanein of Strategic Information, 2018  Elsevier</t>
+          <t>Y Han, P Ozturk, JV Nickerson Association for Information Systems, 2020  aisel.aisnet.org</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Strategic+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=70&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+the+Association+for+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Journal of Strategic Information Systems</t>
+          <t>Journal of the Association for Information Systems</t>
         </is>
       </c>
       <c r="K57" t="b">
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="O57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
@@ -4442,51 +4442,51 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="B58" t="n">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>reflections on societal and business model transformation arising from digitization and big data analytics: a research agenda</t>
+          <t>artificial intelligence in organizations: implications for information systems research</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>C Loebbecke, A Picot</t>
+          <t>H Benbya, S Pachidi, SL Jarvenpaa</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Journal of Strategic Information Systems</t>
+          <t>Journal of the Association for Information Systems</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S0963868715000372</t>
+          <t>https://www.researchgate.net/profile/Hind-Benbya/publication/349883012_Artificial_Intelligence_in_Organizations_Implications_for_Information_Systems_Research/links/6045ff49a6fdcc9c781e367e/Artificial-Intelligence-in-Organizations-Implications-for-Information-Systems-Research.pdf</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>C Loebbecke, A Picot The Journal of Strategic Information Systems, 2015  Elsevier</t>
+          <t>H Benbya, S Pachidi, SL Jarvenpaa Association for Information, 2021  researchgate.net</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Strategic+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+the+Association+for+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Journal of Strategic Information Systems</t>
+          <t>Journal of the Association for Information Systems</t>
         </is>
       </c>
       <c r="K58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -4498,10 +4498,10 @@
         <v>0</v>
       </c>
       <c r="O58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="b">
         <v>0</v>
@@ -4512,47 +4512,47 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="B59" t="n">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>augmenting the algorithm: emerging human-in-the-loop work configurations</t>
+          <t>in the backrooms of data science</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>T Grnsund, M Aanestad</t>
+          <t>E Parmiggiani, T sterlie, PG Almklov</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Journal of Strategic Information Systems</t>
+          <t>Journal of the Association for Information Systems</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://www.sciencedirect.com/science/article/pii/S0963868720300226</t>
+          <t>https://aisel.aisnet.org/jais/vol23/iss1/8/</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>T Grnsund, M Aanestad The Journal of Strategic Information Systems, 2020  Elsevier</t>
+          <t>E Parmiggiani, T sterlie, PG Almklov Association for Information, 2022  aisel.aisnet.org</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+Strategic+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=50&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+the+Association+for+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Journal of Strategic Information Systems</t>
+          <t>Journal of the Association for Information Systems</t>
         </is>
       </c>
       <c r="K59" t="b">
@@ -4568,13 +4568,13 @@
         <v>0</v>
       </c>
       <c r="O59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" t="b">
         <v>0</v>
       </c>
       <c r="Q59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59" t="b">
         <v>0</v>
@@ -4582,23 +4582,23 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="B60" t="n">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>how to build enterprise data models to achieve compliance to standards or regulatory requirements (and share data).</t>
+          <t>sociotechnical envelopment of artificial intelligence: an approach to organizational deployment of inscrutable artificial intelligence systems</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>H Kim, MS Fox, A Sengupta</t>
+          <t>A Asatiani, P Malo, PR Nagbl, E Penttinen</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -4607,17 +4607,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://aisel.aisnet.org/jais/vol8/iss2/5/</t>
+          <t>https://pure.itu.dk/da/publications/sociotechnical-envelopment-of-artificial-intelligence-an-approach</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>H Kim, MS Fox, A Sengupta Association for Information Systems, 2007  aisel.aisnet.org</t>
+          <t>A Asatiani, P Malo, PR Nagbl, E Penttinen for Information Systems, 2021  pure.itu.dk</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=20&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+the+Association+for+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+the+Association+for+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="K60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="O60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
         <v>0</v>
@@ -4652,23 +4652,23 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="B61" t="n">
-        <v>412</v>
+        <v>444</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>cognition matters: enduring questions in cognitive is research</t>
+          <t>the rise of human machines: how cognitive computing systems challenge assumptions of user-system interaction</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>M Davern, T Shaft, D Teeni</t>
+          <t>S Schuetz, V Venkatesh</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -4677,17 +4677,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://aisel.aisnet.org/jais/vol13/iss4/1/</t>
+          <t>https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3680306</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>M Davern, T Shaft, D Teeni Association for Information Systems, 2012  aisel.aisnet.org</t>
+          <t>S Schuetz, V Venkatesh Journal of the Association for Information, 2020  papers.ssrn.com</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=40&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+the+Association+for+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+the+Association+for+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4722,23 +4722,23 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="B62" t="n">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>leveraging the wisdom of the crowd to address societal challenges: revisiting the knowledge reuse for innovation process through analytics</t>
+          <t>big data research in information systems: toward an inclusive research agenda</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Y Han, P Ozturk, JV Nickerson</t>
+          <t>A Abbasi, S Sarker, RHL Chiang</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -4747,17 +4747,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://aisel.aisnet.org/jais/vol21/iss5/8/</t>
+          <t>https://aisel.aisnet.org/jais/vol17/iss2/3/</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Y Han, P Ozturk, JV Nickerson Association for Information Systems, 2020  aisel.aisnet.org</t>
+          <t>A Abbasi, S Sarker, RHL Chiang of the association for information, 2016  aisel.aisnet.org</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=70&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+the+Association+for+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+the+Association+for+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4778,10 +4778,10 @@
         <v>0</v>
       </c>
       <c r="O62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="b">
         <v>0</v>
@@ -4792,19 +4792,19 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="B63" t="n">
-        <v>422</v>
+        <v>483</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>artificial intelligence in organizations: implications for information systems research</t>
+          <t>knowledge management system use as a key driver of professional and organizational cognitive engagement</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>H Benbya, S Pachidi, SL Jarvenpaa</t>
+          <t>K Iyengar, R Montealegre</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -4817,17 +4817,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://www.researchgate.net/profile/Hind-Benbya/publication/349883012_Artificial_Intelligence_in_Organizations_Implications_for_Information_Systems_Research/links/6045ff49a6fdcc9c781e367e/Artificial-Intelligence-in-Organizations-Implications-for-Information-Systems-Research.pdf</t>
+          <t>https://aisel.aisnet.org/jais/vol22/iss2/3/</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>H Benbya, S Pachidi, SL Jarvenpaa Association for Information, 2021  researchgate.net</t>
+          <t>K Iyengar, R Montealegre the Association for Information Systems, 2021  aisel.aisnet.org</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+the+Association+for+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=50&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+the+Association+for+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="K63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" t="b">
         <v>0</v>
@@ -4857,24 +4857,24 @@
         <v>0</v>
       </c>
       <c r="R63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="B64" t="n">
-        <v>424</v>
+        <v>484</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>in the backrooms of data science</t>
+          <t>research perspectives: toward theoretical rigor in ethical analysis: the case of algorithmic decision-making systems</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>E Parmiggiani, T sterlie, PG Almklov</t>
+          <t>U Gal, S Hansen, AS Lee</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -4887,12 +4887,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://aisel.aisnet.org/jais/vol23/iss1/8/</t>
+          <t>https://aisel.aisnet.org/jais/vol23/iss6/1/</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>E Parmiggiani, T sterlie, PG Almklov Association for Information, 2022  aisel.aisnet.org</t>
+          <t>U Gal, S Hansen, AS Lee the Association for Information Systems, 2022  aisel.aisnet.org</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4918,13 +4918,13 @@
         <v>0</v>
       </c>
       <c r="O64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
         <v>0</v>
       </c>
       <c r="Q64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" t="b">
         <v>0</v>
@@ -4932,51 +4932,51 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>486</v>
+        <v>574</v>
       </c>
       <c r="B65" t="n">
-        <v>432</v>
+        <v>527</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>sociotechnical envelopment of artificial intelligence: an approach to organizational deployment of inscrutable artificial intelligence systems</t>
+          <t>business intelligence and analytics: from big data to big impact</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>A Asatiani, P Malo, PR Nagbl, E Penttinen</t>
+          <t>H Chen, RHL Chiang, VC Storey</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Journal of the Association for Information Systems</t>
+          <t>MIS Quarterly</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://pure.itu.dk/da/publications/sociotechnical-envelopment-of-artificial-intelligence-an-approach</t>
+          <t>https://www.jstor.org/stable/41703503</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>A Asatiani, P Malo, PR Nagbl, E Penttinen for Information Systems, 2021  pure.itu.dk</t>
+          <t>H Chen, RHL Chiang, VC Storey MIS quarterly, 2012  JSTOR</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+the+Association+for+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=10&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Journal of the Association for Information Systems</t>
+          <t>MIS quarterly</t>
         </is>
       </c>
       <c r="K65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" t="b">
         <v>0</v>
@@ -4988,10 +4988,10 @@
         <v>0</v>
       </c>
       <c r="O65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65" t="b">
         <v>0</v>
@@ -5002,47 +5002,47 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>498</v>
+        <v>584</v>
       </c>
       <c r="B66" t="n">
-        <v>444</v>
+        <v>538</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>the rise of human machines: how cognitive computing systems challenge assumptions of user-system interaction</t>
+          <t>transformational issues of big data and analytics in networked business</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>S Schuetz, V Venkatesh</t>
+          <t>B Baesens, R Bapna, JR Marsden, J Vanthienen</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Journal of the Association for Information Systems</t>
+          <t>MIS Quarterly</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3680306</t>
+          <t>https://www.jstor.org/stable/26629677</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>S Schuetz, V Venkatesh Journal of the Association for Information, 2020  papers.ssrn.com</t>
+          <t>B Baesens, R Bapna, JR Marsden, J Vanthienen MIS quarterly, 2016  JSTOR</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+the+Association+for+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Journal of the Association for Information Systems</t>
+          <t>MIS quarterly</t>
         </is>
       </c>
       <c r="K66" t="b">
@@ -5058,61 +5058,61 @@
         <v>0</v>
       </c>
       <c r="O66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66" t="b">
         <v>0</v>
       </c>
       <c r="R66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>529</v>
+        <v>586</v>
       </c>
       <c r="B67" t="n">
-        <v>475</v>
+        <v>540</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>big data research in information systems: toward an inclusive research agenda</t>
+          <t>healthcare predictive analytics for risk profiling in chronic care</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>A Abbasi, S Sarker, RHL Chiang</t>
+          <t>YK Lin, H Chen, RA Brown, SH Li, HJ Yang</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Journal of the Association for Information Systems</t>
+          <t>MIS Quarterly</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://aisel.aisnet.org/jais/vol17/iss2/3/</t>
+          <t>https://www.jstor.org/stable/26629723</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>A Abbasi, S Sarker, RHL Chiang of the association for information, 2016  aisel.aisnet.org</t>
+          <t>YK Lin, H Chen, RA Brown, SH Li, HJ Yang Mis Quarterly, 2017  JSTOR</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+the+Association+for+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Journal of the Association for Information Systems</t>
+          <t>MIS quarterly</t>
         </is>
       </c>
       <c r="K67" t="b">
@@ -5128,10 +5128,10 @@
         <v>0</v>
       </c>
       <c r="O67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67" t="b">
         <v>0</v>
@@ -5142,47 +5142,47 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>537</v>
+        <v>591</v>
       </c>
       <c r="B68" t="n">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>knowledge management system use as a key driver of professional and organizational cognitive engagement</t>
+          <t>cognitive automation as part of deakin university's digital strategy.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>K Iyengar, R Montealegre</t>
+          <t>R Scheepers, MC Lacity</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Journal of the Association for Information Systems</t>
+          <t>MIS Quarterly</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://aisel.aisnet.org/jais/vol22/iss2/3/</t>
+          <t>https://search.ebscohost.com/login.aspx?direct=true&amp;profile=ehost&amp;scope=site&amp;authtype=crawler&amp;jrnl=15401960&amp;AN=129918158&amp;h=bsP0Uj%2Bu4syXjjBZTWMD%2FpTM%2F6jYJfUlP%2BZso9yiousA7hGjabhL5Q0p0cAFDqiAk5szuOqREen1bXbQBYv%2BzQ%3D%3D&amp;crl=c</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>K Iyengar, R Montealegre the Association for Information Systems, 2021  aisel.aisnet.org</t>
+          <t>R Scheepers, MC Lacity MIS Quarterly, 2018  search.ebscohost.com</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=50&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+the+Association+for+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=10&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Journal of the Association for Information Systems</t>
+          <t>MIS quarterly</t>
         </is>
       </c>
       <c r="K68" t="b">
@@ -5212,47 +5212,47 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>538</v>
+        <v>593</v>
       </c>
       <c r="B69" t="n">
-        <v>484</v>
+        <v>547</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>research perspectives: toward theoretical rigor in ethical analysis: the case of algorithmic decision-making systems</t>
+          <t>text analytics to support sense-making in social media: a language-action perspective</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>U Gal, S Hansen, AS Lee</t>
+          <t>A Abbas, Y Zhou, S Deng, P Zhang</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Journal of the Association for Information Systems</t>
+          <t>MIS Quarterly</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://aisel.aisnet.org/jais/vol23/iss6/1/</t>
+          <t>https://par.nsf.gov/servlets/purl/10064455</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>U Gal, S Hansen, AS Lee the Association for Information Systems, 2022  aisel.aisnet.org</t>
+          <t>A Abbas, Y Zhou, S Deng, P Zhang MIS Quarterly, 2018  par.nsf.gov</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=50&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22Journal+of+the+Association+for+Information+Systems%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=50&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Journal of the Association for Information Systems</t>
+          <t>MIS quarterly</t>
         </is>
       </c>
       <c r="K69" t="b">
@@ -5271,10 +5271,10 @@
         <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R69" t="b">
         <v>0</v>
@@ -5282,23 +5282,23 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="B70" t="n">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>business intelligence and analytics: from big data to big impact</t>
+          <t>building a blockchain application that complies with the eu general data protection regulation.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>H Chen, RHL Chiang, VC Storey</t>
+          <t>A Rieger, J Lockl, N Urbach, F Guggenmos</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -5307,17 +5307,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://www.jstor.org/stable/41703503</t>
+          <t>https://www.researchgate.net/profile/Jannik-Lockl/publication/337797310_Building_a_Blockchain_Application_that_Complies_with_the_EU_General_Data_Protection_Regulation/links/5dea68f592851c836468617f/Building-a-Blockchain-Application-that-Complies-with-the-EU-General-Data-Protection-Regulation.pdf</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>H Chen, RHL Chiang, VC Storey MIS quarterly, 2012  JSTOR</t>
+          <t>A Rieger, J Lockl, N Urbach, F Guggenmos MIS Quarterly, 2019  researchgate.net</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=10&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=20&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5341,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="b">
         <v>0</v>
@@ -5352,23 +5352,23 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="B71" t="n">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>transformational issues of big data and analytics in networked business</t>
+          <t>a deep learning approach for recognizing activity of daily living (adl) for senior care: exploiting interaction dependency and temporal patterns</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>B Baesens, R Bapna, JR Marsden, J Vanthienen</t>
+          <t>H Zhu, S Samtani, R Brown, H Chen</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -5377,17 +5377,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://www.jstor.org/stable/26629677</t>
+          <t>https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3595738</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>B Baesens, R Bapna, JR Marsden, J Vanthienen MIS quarterly, 2016  JSTOR</t>
+          <t>H Zhu, S Samtani, R Brown, H Chen Forthcoming at MIS Quarterly, 2020  papers.ssrn.com</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=50&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -5402,16 +5402,16 @@
         <v>0</v>
       </c>
       <c r="M71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" t="b">
         <v>0</v>
       </c>
       <c r="O71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="b">
         <v>0</v>
@@ -5422,23 +5422,23 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="B72" t="n">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>healthcare predictive analytics for risk profiling in chronic care</t>
+          <t>addressing the key challenges of developing machine learning ai systems for knowledge-intensive work.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>YK Lin, H Chen, RA Brown, SH Li, HJ Yang</t>
+          <t>Z Zhang, JT Hummel, J Nandhakumar</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -5447,17 +5447,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://www.jstor.org/stable/26629723</t>
+          <t>https://search.ebscohost.com/login.aspx?direct=true&amp;profile=ehost&amp;scope=site&amp;authtype=crawler&amp;jrnl=15401960&amp;AN=147658492&amp;h=sC4eT8K4CaqnGeZyLu6hikcF%2BgN%2FCtI7WGIyxWqRi0kKEuTtOMnYl6ukl8SzXMtZy677thCllGhq3HjfBCiFrw%3D%3D&amp;crl=c</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>YK Lin, H Chen, RA Brown, SH Li, HJ Yang Mis Quarterly, 2017  JSTOR</t>
+          <t>Z Zhang, JT Hummel, J Nandhakumar MIS Quarterly, 2020  search.ebscohost.com</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=40&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5469,19 +5469,19 @@
         <v>0</v>
       </c>
       <c r="L72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" t="b">
         <v>0</v>
       </c>
       <c r="N72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72" t="b">
         <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="b">
         <v>0</v>
@@ -5492,23 +5492,23 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="B73" t="n">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>cognitive automation as part of deakin university's digital strategy.</t>
+          <t>addressing user resistance would have prevented a healthcare ai project failure.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>R Scheepers, MC Lacity</t>
+          <t>L Reis, C Maier, J Mattke</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -5517,17 +5517,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://search.ebscohost.com/login.aspx?direct=true&amp;profile=ehost&amp;scope=site&amp;authtype=crawler&amp;jrnl=15401960&amp;AN=129918158&amp;h=bsP0Uj%2Bu4syXjjBZTWMD%2FpTM%2F6jYJfUlP%2BZso9yiousA7hGjabhL5Q0p0cAFDqiAk5szuOqREen1bXbQBYv%2BzQ%3D%3D&amp;crl=c</t>
+          <t>https://search.ebscohost.com/login.aspx?direct=true&amp;profile=ehost&amp;scope=site&amp;authtype=crawler&amp;jrnl=15401960&amp;AN=147658495&amp;h=56A4Zpax9yFK%2FtrR7RH6RBODJYzuufYvVmBrpG5fPumpPlmHzjzOxaWJ3gC1s7kSBIvzparT9wJQB541uysBwQ%3D%3D&amp;crl=c</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>R Scheepers, MC Lacity MIS Quarterly, 2018  search.ebscohost.com</t>
+          <t>L Reis, C Maier, J Mattke MIS Quarterly, 2020  search.ebscohost.com</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=10&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" t="b">
         <v>0</v>
@@ -5557,28 +5557,28 @@
         <v>0</v>
       </c>
       <c r="R73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="B74" t="n">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>text analytics to support sense-making in social media: a language-action perspective</t>
+          <t>challenges of explaining the behavior of black-box ai systems</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>A Abbas, Y Zhou, S Deng, P Zhang</t>
+          <t>A Asatiani, P Malo, PR Nagbl, E Penttinen</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -5587,17 +5587,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://par.nsf.gov/servlets/purl/10064455</t>
+          <t>https://pure.itu.dk/da/publications/challenges-of-explaining-the-behavior-of-black-box-ai-systems</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>A Abbas, Y Zhou, S Deng, P Zhang MIS Quarterly, 2018  par.nsf.gov</t>
+          <t>A Asatiani, P Malo, PR Nagbl, E Penttinen MIS Quarterly, 2020  pure.itu.dk</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=50&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=10&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -5609,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" t="b">
         <v>0</v>
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74" t="b">
         <v>0</v>
@@ -5632,23 +5632,23 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="B75" t="n">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>building a blockchain application that complies with the eu general data protection regulation.</t>
+          <t>connecting systems, data, and people: a multidisciplinary research roadmap for chronic disease management</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>A Rieger, J Lockl, N Urbach, F Guggenmos</t>
+          <t>I Bardhan, H Chen, E Karahanna</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -5657,17 +5657,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://www.researchgate.net/profile/Jannik-Lockl/publication/337797310_Building_a_Blockchain_Application_that_Complies_with_the_EU_General_Data_Protection_Regulation/links/5dea68f592851c836468617f/Building-a-Blockchain-Application-that-Complies-with-the-EU-General-Data-Protection-Regulation.pdf</t>
+          <t>https://www.researchgate.net/profile/Elena-Karahanna/publication/344065115_Connecting_systems_data_and_people_A_multidisciplinary_research_roadmap_for_chronic_disease_management/links/6050ccb9299bf173674ab3c5/Connecting-systems-data-and-people-A-multidisciplinary-research-roadmap-for-chronic-disease-management.pdf</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>A Rieger, J Lockl, N Urbach, F Guggenmos MIS Quarterly, 2019  researchgate.net</t>
+          <t>I Bardhan, H Chen, E Karahanna MIS Quarterly, 2020  researchgate.net</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=20&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5702,23 +5702,23 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="B76" t="n">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>a deep learning approach for recognizing activity of daily living (adl) for senior care: exploiting interaction dependency and temporal patterns</t>
+          <t>a prescriptive analytics framework for optimal policy deployment using heterogeneous treatment effects.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>H Zhu, S Samtani, R Brown, H Chen</t>
+          <t>E McFowland III, S Gangarapu, R Bapna</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -5727,17 +5727,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3595738</t>
+          <t>https://search.ebscohost.com/login.aspx?direct=true&amp;profile=ehost&amp;scope=site&amp;authtype=crawler&amp;jrnl=02767783&amp;AN=153886345&amp;h=j2QhJGVtOU6XMqExLwA15HyGoqkc%2FPvldAVZFN5DSaJ1a33LqfRQCh0AYZ9BeKvROIzS%2FAIgL0XpK2XpqRJe5g%3D%3D&amp;crl=c</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>H Zhu, S Samtani, R Brown, H Chen Forthcoming at MIS Quarterly, 2020  papers.ssrn.com</t>
+          <t>E McFowland III, S Gangarapu, R Bapna MIS Quarterly, 2021  search.ebscohost.com</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=50&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=80&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -5752,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="M76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N76" t="b">
         <v>0</v>
@@ -5761,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76" t="b">
         <v>0</v>
@@ -5772,23 +5772,23 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="B77" t="n">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>addressing the key challenges of developing machine learning ai systems for knowledge-intensive work.</t>
+          <t>avoiding an oppressive future of machine learning: a design theory for emancipatory assistants</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Z Zhang, JT Hummel, J Nandhakumar</t>
+          <t>GC Kane, AG Young, A Majchrzak, S Ransbotham</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -5797,17 +5797,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://search.ebscohost.com/login.aspx?direct=true&amp;profile=ehost&amp;scope=site&amp;authtype=crawler&amp;jrnl=15401960&amp;AN=147658492&amp;h=sC4eT8K4CaqnGeZyLu6hikcF%2BgN%2FCtI7WGIyxWqRi0kKEuTtOMnYl6ukl8SzXMtZy677thCllGhq3HjfBCiFrw%3D%3D&amp;crl=c</t>
+          <t>https://www.researchgate.net/profile/Amber-Young-7/publication/346955741_Avoiding_an_Oppressive_Future_of_Machine_Learning_A_Design_Theory_for_Emancipatory_Assistants_Forthcoming_in_MISQ_Special_Issue_on_Next-Generation_Information_Systems_Theories/links/5fd3c581299bf1408800b6b4/Avoiding-an-Oppressive-Future-of-Machine-Learning-A-Design-Theory-for-Emancipatory-Assistants-Forthcoming-in-MISQ-Special-Issue-on-Next-Generation-Information-Systems-Theories.pdf</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Z Zhang, JT Hummel, J Nandhakumar MIS Quarterly, 2020  search.ebscohost.com</t>
+          <t>GC Kane, AG Young, A Majchrzak, S Ransbotham Mis Quarterly, 2021  researchgate.net</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=40&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=20&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" t="b">
         <v>0</v>
@@ -5842,23 +5842,23 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="B78" t="n">
-        <v>557</v>
+        <v>579</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>addressing user resistance would have prevented a healthcare ai project failure.</t>
+          <t>when digital technologies enable and threaten occupational identity: the delicate balancing act of data scientists.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>L Reis, C Maier, J Mattke</t>
+          <t>E Vaast, A Pinsonneault</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -5867,17 +5867,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://search.ebscohost.com/login.aspx?direct=true&amp;profile=ehost&amp;scope=site&amp;authtype=crawler&amp;jrnl=15401960&amp;AN=147658495&amp;h=56A4Zpax9yFK%2FtrR7RH6RBODJYzuufYvVmBrpG5fPumpPlmHzjzOxaWJ3gC1s7kSBIvzparT9wJQB541uysBwQ%3D%3D&amp;crl=c</t>
+          <t>https://search.ebscohost.com/login.aspx?direct=true&amp;profile=ehost&amp;scope=site&amp;authtype=crawler&amp;jrnl=02767783&amp;AN=152360572&amp;h=Rg97o%2FTJEowSGOK5QFmho01YGkupcnOpXi5cxZg7C7cFsEteQUMpYNljrXKWIIzodOjEHv2LlnGFBgsXU4UYtg%3D%3D&amp;crl=c</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>L Reis, C Maier, J Mattke MIS Quarterly, 2020  search.ebscohost.com</t>
+          <t>E Vaast, A Pinsonneault MIS Quarterly, 2021  search.ebscohost.com</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=30&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5889,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M78" t="b">
         <v>0</v>
@@ -5898,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="O78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P78" t="b">
         <v>0</v>
@@ -5912,23 +5912,23 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="B79" t="n">
-        <v>558</v>
+        <v>580</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>challenges of explaining the behavior of black-box ai systems</t>
+          <t>coordinating human and machine learning for effective organizational learning.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>A Asatiani, P Malo, PR Nagbl, E Penttinen</t>
+          <t>T Sturm, JP Gerlach, L Pumplun, N Mesbah</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -5937,12 +5937,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://pure.itu.dk/da/publications/challenges-of-explaining-the-behavior-of-black-box-ai-systems</t>
+          <t>https://search.ebscohost.com/login.aspx?direct=true&amp;profile=ehost&amp;scope=site&amp;authtype=crawler&amp;jrnl=02767783&amp;AN=152360588&amp;h=zF21j4xe4QNgykWGCaYHNK%2Fb92EuwskUc%2BmDpuQvhBvorMY9tB7et1NWZOrSVDi9CWlsG%2BbGkIgu%2BxaKuA%2BmtA%3D%3D&amp;crl=c</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>A Asatiani, P Malo, PR Nagbl, E Penttinen MIS Quarterly, 2020  pure.itu.dk</t>
+          <t>T Sturm, JP Gerlach, L Pumplun, N Mesbah Quarterly, 2021  search.ebscohost.com</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5959,13 +5959,13 @@
         <v>0</v>
       </c>
       <c r="L79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M79" t="b">
         <v>0</v>
       </c>
       <c r="N79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79" t="b">
         <v>0</v>
@@ -5982,23 +5982,23 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="B80" t="n">
-        <v>560</v>
+        <v>587</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>connecting systems, data, and people: a multidisciplinary research roadmap for chronic disease management</t>
+          <t>the opm data breach: an investigation of shared emotional reactions on twitter.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>I Bardhan, H Chen, E Karahanna</t>
+          <t>E Bachura, R Valecha, R Chen, HR Rao</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -6007,17 +6007,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://www.researchgate.net/profile/Elena-Karahanna/publication/344065115_Connecting_systems_data_and_people_A_multidisciplinary_research_roadmap_for_chronic_disease_management/links/6050ccb9299bf173674ab3c5/Connecting-systems-data-and-people-A-multidisciplinary-research-roadmap-for-chronic-disease-management.pdf</t>
+          <t>https://search.ebscohost.com/login.aspx?direct=true&amp;profile=ehost&amp;scope=site&amp;authtype=crawler&amp;jrnl=02767783&amp;AN=157194645&amp;h=PwMopjORi%2FKLehPfc55mRiFwJERVEK2%2FxgkMVatAZ1XaULaUmen9kLXAGVFVc%2FsbtGP%2B6HiwZIk6WpAGvFa89Q%3D%3D&amp;crl=c</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>I Bardhan, H Chen, E Karahanna MIS Quarterly, 2020  researchgate.net</t>
+          <t>E Bachura, R Valecha, R Chen, HR Rao MIS Quarterly, 2022  search.ebscohost.com</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://scholar.google.com/scholar?start=0&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
+          <t>https://scholar.google.com/scholar?start=80&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -6047,356 +6047,6 @@
         <v>0</v>
       </c>
       <c r="R80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>618</v>
-      </c>
-      <c r="B81" t="n">
-        <v>567</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>a prescriptive analytics framework for optimal policy deployment using heterogeneous treatment effects.</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>E McFowland III, S Gangarapu, R Bapna</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>MIS Quarterly</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>https://search.ebscohost.com/login.aspx?direct=true&amp;profile=ehost&amp;scope=site&amp;authtype=crawler&amp;jrnl=02767783&amp;AN=153886345&amp;h=j2QhJGVtOU6XMqExLwA15HyGoqkc%2FPvldAVZFN5DSaJ1a33LqfRQCh0AYZ9BeKvROIzS%2FAIgL0XpK2XpqRJe5g%3D%3D&amp;crl=c</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>E McFowland III, S Gangarapu, R Bapna MIS Quarterly, 2021  search.ebscohost.com</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>https://scholar.google.com/scholar?start=80&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>MIS quarterly</t>
-        </is>
-      </c>
-      <c r="K81" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" t="b">
-        <v>0</v>
-      </c>
-      <c r="M81" t="b">
-        <v>0</v>
-      </c>
-      <c r="N81" t="b">
-        <v>0</v>
-      </c>
-      <c r="O81" t="b">
-        <v>0</v>
-      </c>
-      <c r="P81" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q81" t="b">
-        <v>0</v>
-      </c>
-      <c r="R81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>620</v>
-      </c>
-      <c r="B82" t="n">
-        <v>569</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>avoiding an oppressive future of machine learning: a design theory for emancipatory assistants</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>GC Kane, AG Young, A Majchrzak, S Ransbotham</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>MIS Quarterly</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>https://www.researchgate.net/profile/Amber-Young-7/publication/346955741_Avoiding_an_Oppressive_Future_of_Machine_Learning_A_Design_Theory_for_Emancipatory_Assistants_Forthcoming_in_MISQ_Special_Issue_on_Next-Generation_Information_Systems_Theories/links/5fd3c581299bf1408800b6b4/Avoiding-an-Oppressive-Future-of-Machine-Learning-A-Design-Theory-for-Emancipatory-Assistants-Forthcoming-in-MISQ-Special-Issue-on-Next-Generation-Information-Systems-Theories.pdf</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>GC Kane, AG Young, A Majchrzak, S Ransbotham Mis Quarterly, 2021  researchgate.net</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>https://scholar.google.com/scholar?start=20&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>MIS quarterly</t>
-        </is>
-      </c>
-      <c r="K82" t="b">
-        <v>0</v>
-      </c>
-      <c r="L82" t="b">
-        <v>0</v>
-      </c>
-      <c r="M82" t="b">
-        <v>0</v>
-      </c>
-      <c r="N82" t="b">
-        <v>1</v>
-      </c>
-      <c r="O82" t="b">
-        <v>0</v>
-      </c>
-      <c r="P82" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="b">
-        <v>0</v>
-      </c>
-      <c r="R82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>630</v>
-      </c>
-      <c r="B83" t="n">
-        <v>579</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>when digital technologies enable and threaten occupational identity: the delicate balancing act of data scientists.</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>E Vaast, A Pinsonneault</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>MIS Quarterly</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>https://search.ebscohost.com/login.aspx?direct=true&amp;profile=ehost&amp;scope=site&amp;authtype=crawler&amp;jrnl=02767783&amp;AN=152360572&amp;h=Rg97o%2FTJEowSGOK5QFmho01YGkupcnOpXi5cxZg7C7cFsEteQUMpYNljrXKWIIzodOjEHv2LlnGFBgsXU4UYtg%3D%3D&amp;crl=c</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>E Vaast, A Pinsonneault MIS Quarterly, 2021  search.ebscohost.com</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>https://scholar.google.com/scholar?start=30&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>MIS quarterly</t>
-        </is>
-      </c>
-      <c r="K83" t="b">
-        <v>0</v>
-      </c>
-      <c r="L83" t="b">
-        <v>0</v>
-      </c>
-      <c r="M83" t="b">
-        <v>0</v>
-      </c>
-      <c r="N83" t="b">
-        <v>0</v>
-      </c>
-      <c r="O83" t="b">
-        <v>1</v>
-      </c>
-      <c r="P83" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="b">
-        <v>0</v>
-      </c>
-      <c r="R83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>631</v>
-      </c>
-      <c r="B84" t="n">
-        <v>580</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>coordinating human and machine learning for effective organizational learning.</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>T Sturm, JP Gerlach, L Pumplun, N Mesbah</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>MIS Quarterly</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>https://search.ebscohost.com/login.aspx?direct=true&amp;profile=ehost&amp;scope=site&amp;authtype=crawler&amp;jrnl=02767783&amp;AN=152360588&amp;h=zF21j4xe4QNgykWGCaYHNK%2Fb92EuwskUc%2BmDpuQvhBvorMY9tB7et1NWZOrSVDi9CWlsG%2BbGkIgu%2BxaKuA%2BmtA%3D%3D&amp;crl=c</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>T Sturm, JP Gerlach, L Pumplun, N Mesbah Quarterly, 2021  search.ebscohost.com</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>https://scholar.google.com/scholar?start=10&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>MIS quarterly</t>
-        </is>
-      </c>
-      <c r="K84" t="b">
-        <v>0</v>
-      </c>
-      <c r="L84" t="b">
-        <v>0</v>
-      </c>
-      <c r="M84" t="b">
-        <v>0</v>
-      </c>
-      <c r="N84" t="b">
-        <v>1</v>
-      </c>
-      <c r="O84" t="b">
-        <v>0</v>
-      </c>
-      <c r="P84" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="b">
-        <v>0</v>
-      </c>
-      <c r="R84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>638</v>
-      </c>
-      <c r="B85" t="n">
-        <v>587</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>the opm data breach: an investigation of shared emotional reactions on twitter.</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>E Bachura, R Valecha, R Chen, HR Rao</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>2022</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>MIS Quarterly</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>https://search.ebscohost.com/login.aspx?direct=true&amp;profile=ehost&amp;scope=site&amp;authtype=crawler&amp;jrnl=02767783&amp;AN=157194645&amp;h=PwMopjORi%2FKLehPfc55mRiFwJERVEK2%2FxgkMVatAZ1XaULaUmen9kLXAGVFVc%2FsbtGP%2B6HiwZIk6WpAGvFa89Q%3D%3D&amp;crl=c</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>E Bachura, R Valecha, R Chen, HR Rao MIS Quarterly, 2022  search.ebscohost.com</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>https://scholar.google.com/scholar?start=80&amp;q=organisation+OR+organization+OR+company+OR+enterprise+AND+intext:%22artificial+intelligence%22+AND+intext:%22adoption%22+AND+source:%22MIS+quarterly%22&amp;hl=en&amp;as_sdt=0,5</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>MIS quarterly</t>
-        </is>
-      </c>
-      <c r="K85" t="b">
-        <v>0</v>
-      </c>
-      <c r="L85" t="b">
-        <v>0</v>
-      </c>
-      <c r="M85" t="b">
-        <v>0</v>
-      </c>
-      <c r="N85" t="b">
-        <v>0</v>
-      </c>
-      <c r="O85" t="b">
-        <v>1</v>
-      </c>
-      <c r="P85" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="b">
-        <v>0</v>
-      </c>
-      <c r="R85" t="b">
         <v>0</v>
       </c>
     </row>
